--- a/data/zombie4.xlsx
+++ b/data/zombie4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A86"/>
+  <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,377 +416,372 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>213</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>214</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>255</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>257</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>375</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>450</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>539</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>551</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>581</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>606</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>614</v>
+        <v>622</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>616</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>622</v>
+        <v>702</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>630</v>
+        <v>752</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>702</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>752</v>
+        <v>811</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>756</v>
+        <v>832</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>811</v>
+        <v>833</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>833</v>
+        <v>854</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>834</v>
+        <v>857</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>854</v>
+        <v>878</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>878</v>
+        <v>968</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>887</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>968</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1088</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1100</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1123</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1145</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1222</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1223</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1243</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1278</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1282</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1318</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1367</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1397</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1401</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1409</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1426</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1430</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1435</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1443</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1450</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1455</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1457</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1460</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1465</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1468</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1478</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1486</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1489</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1509</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1527</v>
+        <v>642</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1533</v>
+        <v>845</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>642</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>845</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1357</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1360</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1403</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1464</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1466</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1483</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1496</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86">
-        <v>1536</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
